--- a/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766317</v>
+        <v>766318</v>
       </c>
       <c r="D2" t="n">
         <v>155968</v>
       </c>
       <c r="E2" t="n">
-        <v>1429201661</v>
+        <v>1429203416</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3239,13 +3239,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17887</v>
+        <v>17890</v>
       </c>
       <c r="D69" t="n">
         <v>2908</v>
       </c>
       <c r="E69" t="n">
-        <v>103801597</v>
+        <v>103828651</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>71268</v>
+        <v>71270</v>
       </c>
       <c r="D88" t="n">
         <v>12436</v>
       </c>
       <c r="E88" t="n">
-        <v>110298182</v>
+        <v>110301078</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18863</v>
+        <v>18866</v>
       </c>
       <c r="D91" t="n">
         <v>3383</v>
       </c>
       <c r="E91" t="n">
-        <v>75211295</v>
+        <v>75241295</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -5002,13 +5002,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>145226</v>
+        <v>145227</v>
       </c>
       <c r="D112" t="n">
         <v>27839</v>
       </c>
       <c r="E112" t="n">
-        <v>716158923</v>
+        <v>716160483</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306198</v>
+        <v>1306206</v>
       </c>
       <c r="D121" t="n">
         <v>220385</v>
       </c>
       <c r="E121" t="n">
-        <v>2274773964</v>
+        <v>2274880771</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633493</v>
+        <v>633508</v>
       </c>
       <c r="D129" t="n">
         <v>104967</v>
       </c>
       <c r="E129" t="n">
-        <v>3429802497</v>
+        <v>3429922615</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="D130" t="n">
         <v>619</v>
       </c>
       <c r="E130" t="n">
-        <v>140439346</v>
+        <v>140443816</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585757</v>
+        <v>585779</v>
       </c>
       <c r="D132" t="n">
         <v>90782</v>
       </c>
       <c r="E132" t="n">
-        <v>3465061648</v>
+        <v>3465773566</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26685</v>
+        <v>26686</v>
       </c>
       <c r="D136" t="n">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="E136" t="n">
-        <v>143733192</v>
+        <v>143736140</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6109,13 +6109,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>76641</v>
+        <v>76643</v>
       </c>
       <c r="D139" t="n">
         <v>17494</v>
       </c>
       <c r="E139" t="n">
-        <v>114132538</v>
+        <v>114133158</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6601,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>39930</v>
+        <v>39931</v>
       </c>
       <c r="D151" t="n">
         <v>7155</v>
       </c>
       <c r="E151" t="n">
-        <v>60367935</v>
+        <v>60378307</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>18458</v>
+        <v>18459</v>
       </c>
       <c r="D154" t="n">
         <v>3296</v>
       </c>
       <c r="E154" t="n">
-        <v>73368683</v>
+        <v>73371235</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>515877</v>
+        <v>515878</v>
       </c>
       <c r="D178" t="n">
         <v>115380</v>
       </c>
       <c r="E178" t="n">
-        <v>891189769</v>
+        <v>891190220</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -9471,13 +9471,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>135494</v>
+        <v>135497</v>
       </c>
       <c r="D221" t="n">
-        <v>27175</v>
+        <v>27176</v>
       </c>
       <c r="E221" t="n">
-        <v>681816845</v>
+        <v>681872566</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766318</v>
+        <v>766319</v>
       </c>
       <c r="D2" t="n">
         <v>155968</v>
       </c>
       <c r="E2" t="n">
-        <v>1429203416</v>
+        <v>1429204916</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>345539</v>
+        <v>345540</v>
       </c>
       <c r="D10" t="n">
         <v>64165</v>
       </c>
       <c r="E10" t="n">
-        <v>1817720252</v>
+        <v>1817722435</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -3608,13 +3608,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>178442</v>
+        <v>178444</v>
       </c>
       <c r="D78" t="n">
         <v>34685</v>
       </c>
       <c r="E78" t="n">
-        <v>892552589</v>
+        <v>892618766</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306206</v>
+        <v>1306211</v>
       </c>
       <c r="D121" t="n">
         <v>220385</v>
       </c>
       <c r="E121" t="n">
-        <v>2274880771</v>
+        <v>2274890216</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>9151</v>
+        <v>9155</v>
       </c>
       <c r="D127" t="n">
         <v>1297</v>
       </c>
       <c r="E127" t="n">
-        <v>110411910</v>
+        <v>110449966</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633508</v>
+        <v>633519</v>
       </c>
       <c r="D129" t="n">
         <v>104967</v>
       </c>
       <c r="E129" t="n">
-        <v>3429922615</v>
+        <v>3430082104</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585779</v>
+        <v>585785</v>
       </c>
       <c r="D132" t="n">
         <v>90782</v>
       </c>
       <c r="E132" t="n">
-        <v>3465773566</v>
+        <v>3465874850</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>25079</v>
+        <v>25080</v>
       </c>
       <c r="D144" t="n">
         <v>6170</v>
       </c>
       <c r="E144" t="n">
-        <v>92448942</v>
+        <v>92483431</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>283312</v>
+        <v>283313</v>
       </c>
       <c r="D237" t="n">
         <v>49797</v>
       </c>
       <c r="E237" t="n">
-        <v>1438336198</v>
+        <v>1438343138</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205909</v>
+        <v>205911</v>
       </c>
       <c r="D240" t="n">
         <v>33984</v>
       </c>
       <c r="E240" t="n">
-        <v>1069054111</v>
+        <v>1069058250</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
